--- a/Jameson etal data/pnas.2305295120.sd01.xlsx
+++ b/Jameson etal data/pnas.2305295120.sd01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasia/Documents/PyCharm/Channel_coexpression/Jameson etal data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F159C11-6D35-964C-8E53-7D135DFE3D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22489E4-09A8-B34B-8AC5-091C84659995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{398D8D27-36CC-D74F-ABC6-A82001CB18E3}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{398D8D27-36CC-D74F-ABC6-A82001CB18E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Fig. 1C" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="Fig. 1E" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Fig. 1D'!$B$3:$B$77</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Fig. 1D'!$A$3:$A$78</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Fig. 1D'!$A$3:$A$78</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Fig. 1D'!$B$3:$B$77</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Fig. 1D'!$B$3:$B$77</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -366,12 +366,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -510,7 +510,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2166,8 +2166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088D0D9B-1E57-2443-8F2B-322D92608772}">
   <dimension ref="A1:V131"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2628,22 +2628,22 @@
       <c r="H11" t="s">
         <v>33</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>34.549999999999997</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>35.840000000000003</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <v>34.43</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="1">
         <v>6.306</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="1">
         <v>1.29</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="1">
         <v>0.87080000000000002</v>
       </c>
       <c r="P11" t="s">
@@ -3854,12 +3854,16 @@
   <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="36.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
@@ -4559,8 +4563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BB8AED-B49B-C040-980C-84CE246AEA34}">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
